--- a/Oefening_week3_autoverhuur/toekenning_verantwoordelijkheden.xlsx
+++ b/Oefening_week3_autoverhuur/toekenning_verantwoordelijkheden.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maarten.troost\source\repos\Oefening_week3_Autoverhuur2\opgave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maarten.troost\Documents\GitHub\Klasrepo\Oefening_week3_autoverhuur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC8A542-0254-4926-AA30-B8525738B63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E1C40A-9B89-422A-AFA2-53967D02DAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="3050" windowWidth="19240" windowHeight="11200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verantwoordelijkheden" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>REQ003: Verhuurapp vraagt welke auto men wil huren</t>
   </si>
@@ -60,7 +60,10 @@
     <t>?</t>
   </si>
   <si>
-    <t>REQ010: Voor elke verhuur wordt een uniek nummer gegenereet: verhuurnr.</t>
+    <t>REQ010: Voor elke verhuur wordt een uniek nummer gegenereerd: verhuurnr.</t>
+  </si>
+  <si>
+    <t>REQ011: Verhuurapp toont per verhuur het verhuurnr, het type auto en de datum</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AEA5AE-84DB-4362-9623-BA0A5BC66F3D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,6 +476,11 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
